--- a/ForExtractingSNP&Mutations/Mutations.xlsx
+++ b/ForExtractingSNP&Mutations/Mutations.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,4 +525,34 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>